--- a/environhub/kudankulamnuclearreactorprotest.xlsx
+++ b/environhub/kudankulamnuclearreactorprotest.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashitha\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="500"/>
+    <workbookView windowWidth="22943" windowHeight="9467" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,792 +14,1127 @@
     <sheet name="Plot2" sheetId="5" r:id="rId5"/>
     <sheet name="Image" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250">
   <si>
     <t>Summary</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Event Type</t>
-  </si>
-  <si>
-    <t>Event Description</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Relation</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Sikkim</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Goa</t>
-  </si>
-  <si>
-    <t>Nagaland</t>
-  </si>
-  <si>
-    <t>Mizoram</t>
-  </si>
-  <si>
-    <t>Jammu and Kashmir</t>
-  </si>
-  <si>
-    <t>Puducherry</t>
-  </si>
-  <si>
-    <t>Tripura</t>
-  </si>
-  <si>
-    <t>West Bengal</t>
-  </si>
-  <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Arunachal Pradesh</t>
-  </si>
-  <si>
-    <t>Manipur</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Jharkhand</t>
-  </si>
-  <si>
-    <t>Uttarakhand</t>
-  </si>
-  <si>
-    <t>Meghalaya</t>
-  </si>
-  <si>
-    <t>Assam</t>
-  </si>
-  <si>
-    <t>Odisha</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Telangana</t>
-  </si>
-  <si>
-    <t>Andaman and Nicobar Islands</t>
-  </si>
-  <si>
-    <t>Himachal Pradesh</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-  <si>
-    <t>Chhattisgarh</t>
-  </si>
-  <si>
-    <t>Chandigarh</t>
-  </si>
-  <si>
-    <t>Haryana</t>
-  </si>
-  <si>
-    <t>Dadra and Nagar Haveli</t>
-  </si>
-  <si>
-    <t>Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>Daman and Diu</t>
-  </si>
-  <si>
-    <t>Bihar</t>
-  </si>
-  <si>
-    <t>Madhya Pradesh</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Lakshadweep</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> then Prime Minister Rajiv Gandhi and Soviet President Mikhail Gorbachev signed the Kudankulam nuclear agreement in 1988, it marked the beginning of a promise of nuclear-powered energy self-sufficiency for the country. The 1988 agreement was initially for the setting up of two nuclear reactors in Tirunelveli.</t>
-  </si>
-  <si>
-    <t>political intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the dissolution of the Soviet Union itself soon after the agreement was signed placed a stumbling block before it, and the project was revived only after a decade. In 2000, construction work for the Kudankulam Nuclear Power Plant (KKNPP) began in Tamil Nadu under the Atal Bihari Vajpayee government</t>
-  </si>
-  <si>
-    <t>In mid-March 2011, right when India began testing equipments at the first nuclear power unit, the Fukushima Daichii nuclear disaster unfolded in Japan. Even as work on the first unit was underway, protests against it started once again. The Fukushima disaster triggered a series of concerns surrounding the safety of the Kudankulam plant. The protestors, led by S. P. Udayakumar and his People's Movement against Nuclear Energy, were charged with sedition and &gt;over 1,800 protesters were arrested .</t>
-  </si>
-  <si>
-    <t>15/03/2011</t>
-  </si>
-  <si>
-    <t>people intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In 2012, project officials allayed local residents' fears that water from Pechiparai and Tamirabharani River would be diverted for the nuclear reactors. An &gt;ultra-mega desalination plant at the project site would supply the fresh water required to manage the day-to-day operations of the reactors, officials said.</t>
-  </si>
-  <si>
-    <t>The first unit of the nuclear power plant reached full capacity generation of 1000 MW in 2014, of which Tamil Nadu’s share of power is 465 MW. The share of nuclear power in India to the country’s energy mix remains low, approximately four per cent of the electricity production share in 2015, according to the International Atomic Energy Agency (IAEA</t>
-  </si>
-  <si>
-    <t>The first unit of the nuclear power plant reached full capacity generation of 1000 MW in 2014, of which Tamil Nadu’s share of power is 465 MW</t>
-  </si>
-  <si>
-    <t>https://en.reset.org/files/imagecache/w450/2012/09/12/nuclear_protest_pic.jpg</t>
-  </si>
-  <si>
-    <t>http://dz01iyojmxk8t.cloudfront.net/wp-content/uploads/2013/04/06222511/Kudankulam-Nuclear-Power-Plant.jpg</t>
-  </si>
-  <si>
-    <t>Celine</t>
-  </si>
-  <si>
-    <t>A local resident of kudankulam</t>
-  </si>
-  <si>
-    <t>Not a single government, not a single political party is willing to take up our cause,Only Mother Mary can save us now.What’s the point of starting a second unit when there are so many problems with the first?</t>
-  </si>
-  <si>
-    <t>People ask us, why are you against science? Why don’t you want India to develop.We want to tell them – we’re not against electricity … We’re against nuclear power</t>
-  </si>
-  <si>
-    <t>Sundari</t>
-  </si>
-  <si>
-    <t>an anti-nuclear activist from Idinthakarai village</t>
-  </si>
-  <si>
-    <t>SP Udayakumar</t>
-  </si>
-  <si>
-    <t>an anti-nuclear activist from Nagercoil</t>
-  </si>
-  <si>
-    <t>If India was getting half or a third of its energy from nuclear plants, then maybe there would be an argument for it.But after all this, after years of crushing the peoples’ protest at Idinthakarai, is it really worth it?</t>
   </si>
   <si>
     <t xml:space="preserve">Kudankulam Nuclear Power Plant (or Koodankulam NPP or KKNPP) is the single largest nuclear power station in India, situated in Koodankulam in the Tirunelveli district of the southern Indian state of Tamil Nadu. Construction on the plant began on 31 March 2002, but faced several delays due to opposition from local fishermen.In 2011, thousands from the vicinity of the plant protested against it, fearing a nuclear disaster. According to the protesters, evacuation of people in the event of a nuclear disaster would be impossible. According to S P Udayakumar, of the People's Movement Against Nuclear Energy, "the nuclear plant is unsafe". However, in 2012, the chief of India's nuclear energy program, Dr Srikumar Banerjee, called the plant "one of the safest" in the world. In December 2012, The Hindu reported that hundreds of villagers in the region were largely ignorant of the risks and benefits of the plant.A Public Interest Litigation (PIL) was filed in 2011 with the Supreme Court asking for nuclear power development to be delayed until safety concerns were independently assessed. In May 2013, the Supreme Court ruled in favour of the plant, stating that the nuclear power plant was in the larger public interest.In March 2012, nearly 200 anti-nuclear protesters were detained for a few hours by the police. The protesters were set to join protests objecting resumption of work of one of two 1 GW reactors, a day after the local government restarted work on the project.There have also been rallies and protests in favour of commissioning this nuclear power plant.
 </t>
+  </si>
+  <si>
+    <t>Event Type</t>
+  </si>
+  <si>
+    <t>Event Description</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>political intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> then Prime Minister Rajiv Gandhi and Soviet President Mikhail Gorbachev signed the Kudankulam nuclear agreement in 1988, it marked the beginning of a promise of nuclear-powered energy self-sufficiency for the country. The 1988 agreement was initially for the setting up of two nuclear reactors in Tirunelveli.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the dissolution of the Soviet Union itself soon after the agreement was signed placed a stumbling block before it, and the project was revived only after a decade. In 2000, construction work for the Kudankulam Nuclear Power Plant (KKNPP) began in Tamil Nadu under the Atal Bihari Vajpayee government</t>
+  </si>
+  <si>
+    <t>Actions taken</t>
+  </si>
+  <si>
+    <t>In mid-March 2011, right when India began testing equipments at the first nuclear power unit, the Fukushima Daichii nuclear disaster unfolded in Japan. Even as work on the first unit was underway, protests against it started once again. The Fukushima disaster triggered a series of concerns surrounding the safety of the Kudankulam plant. The protestors, led by S. P. Udayakumar and his People's Movement against Nuclear Energy, were charged with sedition and &gt;over 1,800 protesters were arrested .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In 2012, project officials allayed local residents' fears that water from Pechiparai and Tamirabharani River would be diverted for the nuclear reactors. An &gt;ultra-mega desalination plant at the project site would supply the fresh water required to manage the day-to-day operations of the reactors, officials said.</t>
+  </si>
+  <si>
+    <t>The first unit of the nuclear power plant reached full capacity generation of 1000 MW in 2014, of which Tamil Nadu’s share of power is 465 MW. The share of nuclear power in India to the country’s energy mix remains low, approximately four per cent of the electricity production share in 2015, according to the International Atomic Energy Agency (IAEA</t>
+  </si>
+  <si>
+    <t>The first unit of the nuclear power plant reached full capacity generation of 1000 MW in 2014, of which Tamil Nadu’s share of power is 465 MW</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Celine</t>
+  </si>
+  <si>
+    <t>A local resident of kudankulam</t>
+  </si>
+  <si>
+    <t>Not a single government, not a single political party is willing to take up our cause,Only Mother Mary can save us now.What’s the point of starting a second unit when there are so many problems with the first?</t>
+  </si>
+  <si>
+    <t>Sundari</t>
+  </si>
+  <si>
+    <t>an anti-nuclear activist from Idinthakarai village</t>
+  </si>
+  <si>
+    <t>People ask us, why are you against science? Why don’t you want India to develop.We want to tell them – we’re not against electricity … We’re against nuclear power</t>
+  </si>
+  <si>
+    <t>SP Udayakumar</t>
+  </si>
+  <si>
+    <t>an anti-nuclear activist from Nagercoil</t>
+  </si>
+  <si>
+    <t>If India was getting half or a third of its energy from nuclear plants, then maybe there would be an argument for it.But after all this, after years of crushing the peoples’ protest at Idinthakarai, is it really worth it?</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Puducherry</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Andaman and Nicobar Islands</t>
+  </si>
+  <si>
+    <t>Daman and Diu</t>
+  </si>
+  <si>
+    <t>Dadra and Nagar Haveli</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>2004-01</t>
+  </si>
+  <si>
+    <t>2004-02</t>
+  </si>
+  <si>
+    <t>2004-03</t>
+  </si>
+  <si>
+    <t>2004-04</t>
+  </si>
+  <si>
+    <t>2004-05</t>
+  </si>
+  <si>
+    <t>2004-06</t>
+  </si>
+  <si>
+    <t>2004-07</t>
+  </si>
+  <si>
+    <t>2004-08</t>
+  </si>
+  <si>
+    <t>2004-09</t>
+  </si>
+  <si>
+    <t>2004-10</t>
+  </si>
+  <si>
+    <t>2004-11</t>
+  </si>
+  <si>
+    <t>2004-12</t>
+  </si>
+  <si>
+    <t>2005-01</t>
+  </si>
+  <si>
+    <t>2005-02</t>
+  </si>
+  <si>
+    <t>2005-03</t>
+  </si>
+  <si>
+    <t>2005-04</t>
+  </si>
+  <si>
+    <t>2005-05</t>
+  </si>
+  <si>
+    <t>2005-06</t>
+  </si>
+  <si>
+    <t>2005-07</t>
+  </si>
+  <si>
+    <t>2005-08</t>
+  </si>
+  <si>
+    <t>2005-09</t>
+  </si>
+  <si>
+    <t>2005-10</t>
+  </si>
+  <si>
+    <t>2005-11</t>
+  </si>
+  <si>
+    <t>2005-12</t>
+  </si>
+  <si>
+    <t>2006-01</t>
+  </si>
+  <si>
+    <t>2006-02</t>
+  </si>
+  <si>
+    <t>2006-03</t>
+  </si>
+  <si>
+    <t>2006-04</t>
+  </si>
+  <si>
+    <t>2006-05</t>
+  </si>
+  <si>
+    <t>2006-06</t>
+  </si>
+  <si>
+    <t>2006-07</t>
+  </si>
+  <si>
+    <t>2006-08</t>
+  </si>
+  <si>
+    <t>2006-09</t>
+  </si>
+  <si>
+    <t>2006-10</t>
+  </si>
+  <si>
+    <t>2006-11</t>
+  </si>
+  <si>
+    <t>2006-12</t>
+  </si>
+  <si>
+    <t>2007-01</t>
+  </si>
+  <si>
+    <t>2007-02</t>
+  </si>
+  <si>
+    <t>2007-03</t>
+  </si>
+  <si>
+    <t>2007-04</t>
+  </si>
+  <si>
+    <t>2007-05</t>
+  </si>
+  <si>
+    <t>2007-06</t>
+  </si>
+  <si>
+    <t>2007-07</t>
+  </si>
+  <si>
+    <t>2007-08</t>
+  </si>
+  <si>
+    <t>2007-09</t>
+  </si>
+  <si>
+    <t>2007-10</t>
+  </si>
+  <si>
+    <t>2007-11</t>
+  </si>
+  <si>
+    <t>2007-12</t>
+  </si>
+  <si>
+    <t>2008-01</t>
+  </si>
+  <si>
+    <t>2008-02</t>
+  </si>
+  <si>
+    <t>2008-03</t>
+  </si>
+  <si>
+    <t>2008-04</t>
+  </si>
+  <si>
+    <t>2008-05</t>
+  </si>
+  <si>
+    <t>2008-06</t>
+  </si>
+  <si>
+    <t>2008-07</t>
+  </si>
+  <si>
+    <t>2008-08</t>
+  </si>
+  <si>
+    <t>2008-09</t>
+  </si>
+  <si>
+    <t>2008-10</t>
+  </si>
+  <si>
+    <t>2008-11</t>
+  </si>
+  <si>
+    <t>2008-12</t>
+  </si>
+  <si>
+    <t>2009-01</t>
+  </si>
+  <si>
+    <t>2009-02</t>
+  </si>
+  <si>
+    <t>2009-03</t>
+  </si>
+  <si>
+    <t>2009-04</t>
+  </si>
+  <si>
+    <t>2009-05</t>
+  </si>
+  <si>
+    <t>2009-06</t>
+  </si>
+  <si>
+    <t>2009-07</t>
+  </si>
+  <si>
+    <t>2009-08</t>
+  </si>
+  <si>
+    <t>2009-09</t>
+  </si>
+  <si>
+    <t>2009-10</t>
+  </si>
+  <si>
+    <t>2009-11</t>
+  </si>
+  <si>
+    <t>2009-12</t>
+  </si>
+  <si>
+    <t>2010-01</t>
+  </si>
+  <si>
+    <t>2010-02</t>
+  </si>
+  <si>
+    <t>2010-03</t>
+  </si>
+  <si>
+    <t>2010-04</t>
+  </si>
+  <si>
+    <t>2010-05</t>
+  </si>
+  <si>
+    <t>2010-06</t>
+  </si>
+  <si>
+    <t>2010-07</t>
+  </si>
+  <si>
+    <t>2010-08</t>
+  </si>
+  <si>
+    <t>2010-09</t>
+  </si>
+  <si>
+    <t>2010-10</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>2010-12</t>
+  </si>
+  <si>
+    <t>2011-01</t>
+  </si>
+  <si>
+    <t>2011-02</t>
+  </si>
+  <si>
+    <t>2011-03</t>
+  </si>
+  <si>
+    <t>2011-04</t>
+  </si>
+  <si>
+    <t>2011-05</t>
+  </si>
+  <si>
+    <t>2011-06</t>
+  </si>
+  <si>
+    <t>2011-07</t>
+  </si>
+  <si>
+    <t>2011-08</t>
+  </si>
+  <si>
+    <t>2011-09</t>
+  </si>
+  <si>
+    <t>2011-10</t>
+  </si>
+  <si>
+    <t>2011-11</t>
+  </si>
+  <si>
+    <t>2011-12</t>
+  </si>
+  <si>
+    <t>2012-01</t>
+  </si>
+  <si>
+    <t>2012-02</t>
+  </si>
+  <si>
+    <t>2012-03</t>
+  </si>
+  <si>
+    <t>2012-04</t>
+  </si>
+  <si>
+    <t>2012-05</t>
+  </si>
+  <si>
+    <t>2012-06</t>
+  </si>
+  <si>
+    <t>2012-07</t>
+  </si>
+  <si>
+    <t>2012-08</t>
+  </si>
+  <si>
+    <t>2012-09</t>
+  </si>
+  <si>
+    <t>2012-10</t>
+  </si>
+  <si>
+    <t>2012-11</t>
+  </si>
+  <si>
+    <t>2012-12</t>
+  </si>
+  <si>
+    <t>2013-01</t>
+  </si>
+  <si>
+    <t>2013-02</t>
+  </si>
+  <si>
+    <t>2013-03</t>
+  </si>
+  <si>
+    <t>2013-04</t>
+  </si>
+  <si>
+    <t>2013-05</t>
+  </si>
+  <si>
+    <t>2013-06</t>
+  </si>
+  <si>
+    <t>2013-07</t>
+  </si>
+  <si>
+    <t>2013-08</t>
+  </si>
+  <si>
+    <t>2013-09</t>
+  </si>
+  <si>
+    <t>2013-10</t>
+  </si>
+  <si>
+    <t>2013-11</t>
+  </si>
+  <si>
+    <t>2013-12</t>
+  </si>
+  <si>
+    <t>2014-01</t>
+  </si>
+  <si>
+    <t>2014-02</t>
+  </si>
+  <si>
+    <t>2014-03</t>
+  </si>
+  <si>
+    <t>2014-04</t>
+  </si>
+  <si>
+    <t>2014-05</t>
+  </si>
+  <si>
+    <t>2014-06</t>
+  </si>
+  <si>
+    <t>2014-07</t>
+  </si>
+  <si>
+    <t>2014-08</t>
+  </si>
+  <si>
+    <t>2014-09</t>
+  </si>
+  <si>
+    <t>2014-10</t>
+  </si>
+  <si>
+    <t>2014-11</t>
+  </si>
+  <si>
+    <t>2014-12</t>
+  </si>
+  <si>
+    <t>2015-01</t>
+  </si>
+  <si>
+    <t>2015-02</t>
+  </si>
+  <si>
+    <t>2015-03</t>
+  </si>
+  <si>
+    <t>2015-04</t>
+  </si>
+  <si>
+    <t>2015-05</t>
+  </si>
+  <si>
+    <t>2015-06</t>
+  </si>
+  <si>
+    <t>2015-07</t>
+  </si>
+  <si>
+    <t>2015-08</t>
+  </si>
+  <si>
+    <t>2015-09</t>
+  </si>
+  <si>
+    <t>2015-10</t>
+  </si>
+  <si>
+    <t>2015-11</t>
+  </si>
+  <si>
+    <t>2015-12</t>
+  </si>
+  <si>
+    <t>2016-01</t>
+  </si>
+  <si>
+    <t>2016-02</t>
+  </si>
+  <si>
+    <t>2016-03</t>
+  </si>
+  <si>
+    <t>2016-04</t>
+  </si>
+  <si>
+    <t>2016-05</t>
+  </si>
+  <si>
+    <t>2016-06</t>
+  </si>
+  <si>
+    <t>2016-07</t>
+  </si>
+  <si>
+    <t>2016-08</t>
+  </si>
+  <si>
+    <t>2016-09</t>
+  </si>
+  <si>
+    <t>2016-10</t>
+  </si>
+  <si>
+    <t>2016-11</t>
+  </si>
+  <si>
+    <t>2016-12</t>
+  </si>
+  <si>
+    <t>2017-01</t>
+  </si>
+  <si>
+    <t>2017-02</t>
+  </si>
+  <si>
+    <t>2017-03</t>
+  </si>
+  <si>
+    <t>2017-04</t>
+  </si>
+  <si>
+    <t>2017-05</t>
+  </si>
+  <si>
+    <t>2017-06</t>
+  </si>
+  <si>
+    <t>2017-07</t>
+  </si>
+  <si>
+    <t>2017-08</t>
+  </si>
+  <si>
+    <t>2017-09</t>
+  </si>
+  <si>
+    <t>2017-10</t>
+  </si>
+  <si>
+    <t>2017-11</t>
+  </si>
+  <si>
+    <t>2017-12</t>
+  </si>
+  <si>
+    <t>2018-01</t>
+  </si>
+  <si>
+    <t>2018-02</t>
+  </si>
+  <si>
+    <t>2018-03</t>
+  </si>
+  <si>
+    <t>2018-04</t>
+  </si>
+  <si>
+    <t>2018-05</t>
+  </si>
+  <si>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>2018-07</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2019-04</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://en.reset.org/files/imagecache/w450/2012/09/12/nuclear_protest_pic.jpg</t>
+  </si>
+  <si>
+    <t>http://dz01iyojmxk8t.cloudfront.net/wp-content/uploads/2013/04/06222511/Kudankulam-Nuclear-Power-Plant.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -812,33 +1142,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -887,7 +1503,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -922,7 +1538,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1096,40 +1712,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1025" width="11.5740740740741"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="2" ht="409.5" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -1139,101 +1750,108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C13" sqref="C8:C13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="1"/>
-    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125" style="1"/>
-    <col min="1026" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="11.5740740740741" style="1"/>
+    <col min="3" max="3" width="23.1388888888889" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5740740740741" style="1"/>
+    <col min="1026" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" ht="26.4" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>32296</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="382.8" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>36535</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>32179</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" ht="382.8" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>234</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>36800</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" ht="409.5" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>41033</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>40617</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" ht="369.6" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="204" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>41004</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" ht="409.5" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
         <v>41336</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>41860</v>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" ht="171.6" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>41890</v>
+      </c>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1242,67 +1860,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B8" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125" style="1"/>
-    <col min="1026" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.5740740740741" style="1"/>
+    <col min="2" max="3" width="22.712962962963" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5740740740741" style="1"/>
+    <col min="1026" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="1" s="2" customFormat="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="118.8" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="92.4" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="118.8" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>249</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -1312,315 +1931,316 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125" style="1"/>
-    <col min="1026" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1025" width="11.5740740740741" style="1"/>
+    <col min="1026" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="26.4" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="26.4" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="26.4" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="26.4" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="26.4" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="26.4" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" ht="39.6" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="26.4" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="26.4" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" ht="26.4" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1629,1500 +2249,1501 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1025" width="11.5740740740741"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B11">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B18">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B24">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B31">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B35">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B37">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B38">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B40">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B41">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B42">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B44">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B45">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B46">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B47">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B48">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B49">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B50">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B52">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B53">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B54">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B55">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B56">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B57">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B58">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B59">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B60">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B61">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B63">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B64">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B65">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B66">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B67">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B68">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B69">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B70">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B71">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B72">
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B73">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B74">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B75">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B76">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B77">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B78">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B79">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B80">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B81">
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B83">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B84">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B85">
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B86">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B87">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B88">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B89">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B90">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B91">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B92">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B93">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B94">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B95">
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B96">
         <v>72</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B97">
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B98">
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B99">
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B100">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B101">
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B102">
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B103">
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B104">
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B105">
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B106">
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B107">
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B108">
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B109">
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B110">
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B111">
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B112">
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B113">
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B114">
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B115">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B116">
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B117">
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B118">
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B119">
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B120">
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B121">
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B122">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="B123">
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B124">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B125">
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B126">
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B127">
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B128">
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B129">
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B130">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B131">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B132">
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B133">
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B134">
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B135">
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B136">
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B137">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B138">
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B139">
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B140">
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B141">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="B142">
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B143">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B145">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B146">
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B147">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="B148">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B149">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B150">
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B151">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="B152">
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B153">
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="B154">
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B155">
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B156">
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B157">
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B158">
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B159">
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B160">
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B161">
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="B162">
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="B163">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="B164">
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B165">
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B166">
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B167">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B168">
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="B169">
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="B170">
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B171">
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B172">
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="B173">
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="B174">
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="B175">
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="B176">
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B177">
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B178">
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B179">
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="B180">
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B181">
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B182">
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B183">
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="B184">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="B185">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -3132,37 +3753,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125" style="1"/>
-    <col min="1026" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1025" width="11.5740740740741" style="1"/>
+    <col min="1026" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="89.25" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" ht="92.4" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="127.5" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" ht="132" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
